--- a/samplefile/ZoovuSampleData.xlsx
+++ b/samplefile/ZoovuSampleData.xlsx
@@ -5,22 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexHackman\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZoovuDemoShop\ahackman\samplefile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CE1A341-B483-4736-A6B7-E54B5BCA2413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654D18B7-237E-4B20-95FB-0852D5AF2B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="183">
   <si>
     <t>Name</t>
   </si>
@@ -494,13 +507,88 @@
   </si>
   <si>
     <t>Smart, Energy Star Certified</t>
+  </si>
+  <si>
+    <t>https://assets-barracuda-zoovu.azureedge.net/zoovu/c9988a81-6225-495e-9916-63507b5d2d52</t>
+  </si>
+  <si>
+    <t>https://assets-barracuda-zoovu.azureedge.net/zoovu/f9ede074-9c83-410f-afc0-5b3ada0d4856</t>
+  </si>
+  <si>
+    <t>https://assets-barracuda-zoovu.azureedge.net/zoovu/ddf8cab7-b0a1-4472-b4ad-e5b8c1668ede</t>
+  </si>
+  <si>
+    <t>https://assets-barracuda-zoovu.azureedge.net/zoovu/6de2fc55-1be4-4be6-bd5d-96563927d2cc</t>
+  </si>
+  <si>
+    <t>https://assets-barracuda-zoovu.azureedge.net/zoovu/6cfe5cbe-7a63-4113-a69f-cfaf03613f33</t>
+  </si>
+  <si>
+    <t>https://assets-barracuda-zoovu.azureedge.net/zoovu/c9988a81-6225-495e-9916-63507b5d2d53</t>
+  </si>
+  <si>
+    <t>https://assets-barracuda-zoovu.azureedge.net/zoovu/f9ede074-9c83-410f-afc0-5b3ada0d4857</t>
+  </si>
+  <si>
+    <t>https://assets-barracuda-zoovu.azureedge.net/zoovu/132b01cc-9c95-4892-912f-64e65c2a71d0</t>
+  </si>
+  <si>
+    <t>https://assets-barracuda-zoovu.azureedge.net/zoovu/21bd4264-0b81-4daa-af12-c49864d722a2</t>
+  </si>
+  <si>
+    <t>https://assets-barracuda-zoovu.azureedge.net/zoovu/05a85fa1-5d00-4149-b119-50b4d9900baf</t>
+  </si>
+  <si>
+    <t>https://assets-barracuda-zoovu.azureedge.net/zoovu/26e83aa3-73e4-4861-861b-2336ff73a757</t>
+  </si>
+  <si>
+    <t>https://assets-barracuda-zoovu.azureedge.net/zoovu/132b01cc-9c95-4892-912f-64e65c2a71d1</t>
+  </si>
+  <si>
+    <t>https://assets-barracuda-zoovu.azureedge.net/zoovu/21bd4264-0b81-4daa-af12-c49864d722a3</t>
+  </si>
+  <si>
+    <t>https://assets-barracuda-zoovu.azureedge.net/zoovu/42823f08-0426-43ea-bd7b-39bc9cd0a001</t>
+  </si>
+  <si>
+    <t>https://assets-barracuda-zoovu.azureedge.net/zoovu/fac7f86a-c529-4e61-9606-8d1792f57276</t>
+  </si>
+  <si>
+    <t>https://assets-barracuda-zoovu.azureedge.net/zoovu/138255fa-5f8c-48ab-baa2-ff10b2a19b98</t>
+  </si>
+  <si>
+    <t>https://assets-barracuda-zoovu.azureedge.net/zoovu/410eb56b-b1b6-48e7-9d66-de64912d72dc</t>
+  </si>
+  <si>
+    <t>https://assets-barracuda-zoovu.azureedge.net/zoovu/42823f08-0426-43ea-bd7b-39bc9cd0a002</t>
+  </si>
+  <si>
+    <t>https://assets-barracuda-zoovu.azureedge.net/zoovu/fac7f86a-c529-4e61-9606-8d1792f57277</t>
+  </si>
+  <si>
+    <t>https://assets-barracuda-zoovu.azureedge.net/zoovu/138255fa-5f8c-48ab-baa2-ff10b2a19b99</t>
+  </si>
+  <si>
+    <t>https://assets-barracuda-zoovu.azureedge.net/zoovu/42823f08-0426-43ea-bd7b-39bc9cd0a003</t>
+  </si>
+  <si>
+    <t>https://assets-barracuda-zoovu.azureedge.net/zoovu/39b17a36-41ef-4b7c-be2d-772a1f4ae6e5</t>
+  </si>
+  <si>
+    <t>https://assets-barracuda-zoovu.azureedge.net/zoovu/9695a092-bc82-432a-92b8-e1f0d34be95d</t>
+  </si>
+  <si>
+    <t>https://assets-barracuda-zoovu.azureedge.net/zoovu/81000d59-9d12-4ec7-a7c4-fc3d7328d5cb</t>
+  </si>
+  <si>
+    <t>https://assets-barracuda-zoovu.azureedge.net/zoovu/8bf3c049-944c-4886-bd36-56ef54258628</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -536,6 +624,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -560,10 +655,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -574,8 +670,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -795,12 +893,13 @@
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.44140625" customWidth="1"/>
+    <col min="2" max="3" width="12.6640625" customWidth="1"/>
     <col min="6" max="9" width="12.6640625" style="4"/>
   </cols>
   <sheetData>
@@ -873,8 +972,8 @@
       <c r="C2" s="1">
         <v>549</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
+      <c r="D2" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>17</v>
@@ -932,8 +1031,8 @@
       <c r="C3" s="1">
         <v>699</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
+      <c r="D3" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>17</v>
@@ -991,8 +1090,8 @@
       <c r="C4" s="1">
         <v>1199</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
+      <c r="D4" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>17</v>
@@ -1050,8 +1149,8 @@
       <c r="C5" s="1">
         <v>1299</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
+      <c r="D5" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>17</v>
@@ -1109,8 +1208,8 @@
       <c r="C6" s="1">
         <v>499</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
+      <c r="D6" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>17</v>
@@ -1168,8 +1267,8 @@
       <c r="C7" s="1">
         <v>549</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
+      <c r="D7" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>17</v>
@@ -1227,8 +1326,8 @@
       <c r="C8" s="1">
         <v>799</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>17</v>
+      <c r="D8" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>17</v>
@@ -1286,8 +1385,8 @@
       <c r="C9" s="1">
         <v>1299</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>17</v>
+      <c r="D9" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>17</v>
@@ -1342,8 +1441,8 @@
       <c r="C10" s="1">
         <v>1499</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>17</v>
+      <c r="D10" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>17</v>
@@ -1401,8 +1500,8 @@
       <c r="C11" s="1">
         <v>1299</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>17</v>
+      <c r="D11" s="6" t="s">
+        <v>173</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>17</v>
@@ -1460,8 +1559,8 @@
       <c r="C12" s="1">
         <v>1599</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>17</v>
+      <c r="D12" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>17</v>
@@ -1516,8 +1615,8 @@
       <c r="C13" s="1">
         <v>1599</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>17</v>
+      <c r="D13" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>17</v>
@@ -1575,8 +1674,8 @@
       <c r="C14" s="1">
         <v>1199</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>17</v>
+      <c r="D14" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>17</v>
@@ -1634,8 +1733,8 @@
       <c r="C15" s="1">
         <v>1599</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>17</v>
+      <c r="D15" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>17</v>
@@ -1690,8 +1789,8 @@
       <c r="C16" s="1">
         <v>1499</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>17</v>
+      <c r="D16" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>17</v>
@@ -1749,8 +1848,8 @@
       <c r="C17" s="1">
         <v>1199</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>17</v>
+      <c r="D17" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>17</v>
@@ -1808,8 +1907,8 @@
       <c r="C18" s="1">
         <v>449</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>17</v>
+      <c r="D18" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>17</v>
@@ -1867,8 +1966,8 @@
       <c r="C19" s="1">
         <v>499</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>17</v>
+      <c r="D19" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>17</v>
@@ -1926,8 +2025,8 @@
       <c r="C20" s="1">
         <v>499</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>17</v>
+      <c r="D20" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>17</v>
@@ -1979,8 +2078,8 @@
       <c r="C21" s="1">
         <v>699</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>17</v>
+      <c r="D21" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>17</v>
@@ -2038,8 +2137,8 @@
       <c r="C22" s="1">
         <v>599</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>17</v>
+      <c r="D22" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>17</v>
@@ -2097,8 +2196,8 @@
       <c r="C23" s="1">
         <v>699</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>17</v>
+      <c r="D23" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>17</v>
@@ -2150,8 +2249,8 @@
       <c r="C24" s="1">
         <v>449</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>17</v>
+      <c r="D24" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>17</v>
@@ -2209,8 +2308,8 @@
       <c r="C25" s="1">
         <v>499</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>17</v>
+      <c r="D25" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>17</v>
@@ -2268,8 +2367,8 @@
       <c r="C26" s="1">
         <v>499</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>17</v>
+      <c r="D26" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>17</v>
@@ -2321,8 +2420,8 @@
       <c r="C27" s="1">
         <v>199</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>17</v>
+      <c r="D27" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>17</v>
@@ -2380,8 +2479,8 @@
       <c r="C28" s="1">
         <v>249</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>17</v>
+      <c r="D28" s="6" t="s">
+        <v>180</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>17</v>
@@ -2439,8 +2538,8 @@
       <c r="C29" s="1">
         <v>399</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>17</v>
+      <c r="D29" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>17</v>
@@ -2498,8 +2597,8 @@
       <c r="C30" s="1">
         <v>349</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>17</v>
+      <c r="D30" s="6" t="s">
+        <v>182</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>17</v>
@@ -2550,64 +2649,64 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="D10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="E10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="D11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E30" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="E29" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="E28" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="E27" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="E26" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="E25" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="E24" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="E23" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="E22" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="E21" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="E20" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="E19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E18" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="E17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="E16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E15" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="E14" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="E13" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="E12" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
     <hyperlink ref="E11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="D12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="D13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="E13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="D14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="E14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="D15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="E15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="D16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="E16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="D17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="E17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="D18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="E18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="D19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="E19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="D20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="E20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="D21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="E21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="D22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="E22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="D23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="E23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="D24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="E24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="D25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="E25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="D26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="E26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="D27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="E27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="D28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="E28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="E29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="E30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="E10" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E9" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E8" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E7" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E6" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E5" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E4" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E3" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E2" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D18" r:id="rId30" xr:uid="{C8BED3F2-81F6-4AA6-84ED-18996181C7FD}"/>
+    <hyperlink ref="D19" r:id="rId31" xr:uid="{02C0E693-DC11-494B-B410-95217982373B}"/>
+    <hyperlink ref="D20" r:id="rId32" xr:uid="{A7D728B5-1825-4297-B1AC-7D7FE5890C3E}"/>
+    <hyperlink ref="D21" r:id="rId33" xr:uid="{5634882B-FCEA-44F8-B1DA-3C9E6E74F6E3}"/>
+    <hyperlink ref="D22" r:id="rId34" xr:uid="{66BCD681-8C02-497B-941E-3ECAE731AEF1}"/>
+    <hyperlink ref="D23" r:id="rId35" display="https://assets-barracuda-zoovu.azureedge.net/zoovu/c9988a81-6225-495e-9916-63507b5d2d52" xr:uid="{BE1BACC6-04E6-410D-9DCA-373BADED460A}"/>
+    <hyperlink ref="D24" r:id="rId36" display="https://assets-barracuda-zoovu.azureedge.net/zoovu/f9ede074-9c83-410f-afc0-5b3ada0d4856" xr:uid="{BF0C6E54-8295-4642-862C-2F5B83BA8FBC}"/>
+    <hyperlink ref="D25" r:id="rId37" xr:uid="{9069A94D-8425-4672-B8C0-57B34AAC43D4}"/>
+    <hyperlink ref="D26" r:id="rId38" xr:uid="{7F6C78C1-85A8-4F03-A793-1C961208BEA6}"/>
+    <hyperlink ref="D2" r:id="rId39" xr:uid="{DDBB2EE7-D674-4924-8E7D-6A88950572E3}"/>
+    <hyperlink ref="D3" r:id="rId40" xr:uid="{CE438329-BFBE-4B1B-AF1C-31E7BD2D94AA}"/>
+    <hyperlink ref="D4" r:id="rId41" xr:uid="{FA338553-EF85-4097-872D-5B82C6950237}"/>
+    <hyperlink ref="D5" r:id="rId42" xr:uid="{454154A0-D1D3-4BCB-BAB1-BA51B5DA9BDD}"/>
+    <hyperlink ref="D6" r:id="rId43" display="https://assets-barracuda-zoovu.azureedge.net/zoovu/132b01cc-9c95-4892-912f-64e65c2a71d0" xr:uid="{E8439CED-E6D4-433E-B7F1-05D369BDFDDA}"/>
+    <hyperlink ref="D7" r:id="rId44" display="https://assets-barracuda-zoovu.azureedge.net/zoovu/21bd4264-0b81-4daa-af12-c49864d722a2" xr:uid="{6410D3B1-4C6C-4A39-9F1C-1B767B93EE54}"/>
+    <hyperlink ref="D8" r:id="rId45" xr:uid="{6C8BB65A-F9C7-4B31-89AA-F3AEE1933CF2}"/>
+    <hyperlink ref="D9" r:id="rId46" xr:uid="{FDFF32F6-5719-4CFE-8CA4-4E36979A9AED}"/>
+    <hyperlink ref="D10" r:id="rId47" xr:uid="{0E333D1E-B3A8-49BC-818C-CBE48015CCC7}"/>
+    <hyperlink ref="D11" r:id="rId48" xr:uid="{608EF354-2CDF-40FD-A988-E071AEDEDC14}"/>
+    <hyperlink ref="D12" r:id="rId49" xr:uid="{9C43FED5-B639-48D7-88AC-2BC34DA8597F}"/>
+    <hyperlink ref="D13" r:id="rId50" display="https://assets-barracuda-zoovu.azureedge.net/zoovu/42823f08-0426-43ea-bd7b-39bc9cd0a001" xr:uid="{8693301A-2E67-486D-BDA2-FF1596A17577}"/>
+    <hyperlink ref="D17" r:id="rId51" display="https://assets-barracuda-zoovu.azureedge.net/zoovu/410eb56b-b1b6-48e7-9d66-de64912d72dc" xr:uid="{D2BB8838-82DD-4D96-A5FF-3394DD40BF9F}"/>
+    <hyperlink ref="D14" r:id="rId52" display="https://assets-barracuda-zoovu.azureedge.net/zoovu/fac7f86a-c529-4e61-9606-8d1792f57276" xr:uid="{1F0F088B-58D4-4E94-9811-D52467DE7D34}"/>
+    <hyperlink ref="D15" r:id="rId53" display="https://assets-barracuda-zoovu.azureedge.net/zoovu/138255fa-5f8c-48ab-baa2-ff10b2a19b98" xr:uid="{D3218EA2-66B9-4A8D-A513-77C484867503}"/>
+    <hyperlink ref="D16" r:id="rId54" xr:uid="{88C7C7CA-F208-487A-805C-F2435F6F3660}"/>
+    <hyperlink ref="D27" r:id="rId55" xr:uid="{D4B2729F-4EB7-4091-9B8F-2025E658A384}"/>
+    <hyperlink ref="D28" r:id="rId56" xr:uid="{1BB171EA-C394-485E-971E-00C4EB8E6858}"/>
+    <hyperlink ref="D29" r:id="rId57" xr:uid="{05DD7B07-C1D4-420A-B2AB-1119DCA8631C}"/>
+    <hyperlink ref="D30" r:id="rId58" xr:uid="{C6FD4B61-7B46-4581-8EF8-41E352131583}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId59"/>

--- a/samplefile/ZoovuSampleData.xlsx
+++ b/samplefile/ZoovuSampleData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZoovuDemoShop\ahackman\samplefile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654D18B7-237E-4B20-95FB-0852D5AF2B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E964BA1F-6DBA-4430-ACF5-E75C8DF92C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="175">
   <si>
     <t>Name</t>
   </si>
@@ -524,12 +524,6 @@
     <t>https://assets-barracuda-zoovu.azureedge.net/zoovu/6cfe5cbe-7a63-4113-a69f-cfaf03613f33</t>
   </si>
   <si>
-    <t>https://assets-barracuda-zoovu.azureedge.net/zoovu/c9988a81-6225-495e-9916-63507b5d2d53</t>
-  </si>
-  <si>
-    <t>https://assets-barracuda-zoovu.azureedge.net/zoovu/f9ede074-9c83-410f-afc0-5b3ada0d4857</t>
-  </si>
-  <si>
     <t>https://assets-barracuda-zoovu.azureedge.net/zoovu/132b01cc-9c95-4892-912f-64e65c2a71d0</t>
   </si>
   <si>
@@ -542,12 +536,6 @@
     <t>https://assets-barracuda-zoovu.azureedge.net/zoovu/26e83aa3-73e4-4861-861b-2336ff73a757</t>
   </si>
   <si>
-    <t>https://assets-barracuda-zoovu.azureedge.net/zoovu/132b01cc-9c95-4892-912f-64e65c2a71d1</t>
-  </si>
-  <si>
-    <t>https://assets-barracuda-zoovu.azureedge.net/zoovu/21bd4264-0b81-4daa-af12-c49864d722a3</t>
-  </si>
-  <si>
     <t>https://assets-barracuda-zoovu.azureedge.net/zoovu/42823f08-0426-43ea-bd7b-39bc9cd0a001</t>
   </si>
   <si>
@@ -558,18 +546,6 @@
   </si>
   <si>
     <t>https://assets-barracuda-zoovu.azureedge.net/zoovu/410eb56b-b1b6-48e7-9d66-de64912d72dc</t>
-  </si>
-  <si>
-    <t>https://assets-barracuda-zoovu.azureedge.net/zoovu/42823f08-0426-43ea-bd7b-39bc9cd0a002</t>
-  </si>
-  <si>
-    <t>https://assets-barracuda-zoovu.azureedge.net/zoovu/fac7f86a-c529-4e61-9606-8d1792f57277</t>
-  </si>
-  <si>
-    <t>https://assets-barracuda-zoovu.azureedge.net/zoovu/138255fa-5f8c-48ab-baa2-ff10b2a19b99</t>
-  </si>
-  <si>
-    <t>https://assets-barracuda-zoovu.azureedge.net/zoovu/42823f08-0426-43ea-bd7b-39bc9cd0a003</t>
   </si>
   <si>
     <t>https://assets-barracuda-zoovu.azureedge.net/zoovu/39b17a36-41ef-4b7c-be2d-772a1f4ae6e5</t>
@@ -676,7 +652,38 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -893,13 +900,14 @@
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.44140625" customWidth="1"/>
     <col min="2" max="3" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="80.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="12.6640625" style="4"/>
   </cols>
   <sheetData>
@@ -973,7 +981,7 @@
         <v>549</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>17</v>
@@ -1032,7 +1040,7 @@
         <v>699</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>17</v>
@@ -1091,7 +1099,7 @@
         <v>1199</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>17</v>
@@ -1150,7 +1158,7 @@
         <v>1299</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>17</v>
@@ -1209,7 +1217,7 @@
         <v>499</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>17</v>
@@ -1268,7 +1276,7 @@
         <v>549</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>17</v>
@@ -1327,7 +1335,7 @@
         <v>799</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>17</v>
@@ -1386,7 +1394,7 @@
         <v>1299</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>17</v>
@@ -1442,7 +1450,7 @@
         <v>1499</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>17</v>
@@ -1501,7 +1509,7 @@
         <v>1299</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>17</v>
@@ -1560,7 +1568,7 @@
         <v>1599</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>17</v>
@@ -1616,7 +1624,7 @@
         <v>1599</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>17</v>
@@ -1675,7 +1683,7 @@
         <v>1199</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>17</v>
@@ -1734,7 +1742,7 @@
         <v>1599</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>17</v>
@@ -1790,7 +1798,7 @@
         <v>1499</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>17</v>
@@ -1849,7 +1857,7 @@
         <v>1199</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>17</v>
@@ -2197,7 +2205,7 @@
         <v>699</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>17</v>
@@ -2250,7 +2258,7 @@
         <v>449</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>17</v>
@@ -2421,7 +2429,7 @@
         <v>199</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>17</v>
@@ -2480,7 +2488,7 @@
         <v>249</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>17</v>
@@ -2539,7 +2547,7 @@
         <v>399</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>17</v>
@@ -2598,7 +2606,7 @@
         <v>349</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>17</v>
@@ -2683,25 +2691,25 @@
     <hyperlink ref="D20" r:id="rId32" xr:uid="{A7D728B5-1825-4297-B1AC-7D7FE5890C3E}"/>
     <hyperlink ref="D21" r:id="rId33" xr:uid="{5634882B-FCEA-44F8-B1DA-3C9E6E74F6E3}"/>
     <hyperlink ref="D22" r:id="rId34" xr:uid="{66BCD681-8C02-497B-941E-3ECAE731AEF1}"/>
-    <hyperlink ref="D23" r:id="rId35" display="https://assets-barracuda-zoovu.azureedge.net/zoovu/c9988a81-6225-495e-9916-63507b5d2d52" xr:uid="{BE1BACC6-04E6-410D-9DCA-373BADED460A}"/>
-    <hyperlink ref="D24" r:id="rId36" display="https://assets-barracuda-zoovu.azureedge.net/zoovu/f9ede074-9c83-410f-afc0-5b3ada0d4856" xr:uid="{BF0C6E54-8295-4642-862C-2F5B83BA8FBC}"/>
+    <hyperlink ref="D23" r:id="rId35" xr:uid="{BE1BACC6-04E6-410D-9DCA-373BADED460A}"/>
+    <hyperlink ref="D24" r:id="rId36" xr:uid="{BF0C6E54-8295-4642-862C-2F5B83BA8FBC}"/>
     <hyperlink ref="D25" r:id="rId37" xr:uid="{9069A94D-8425-4672-B8C0-57B34AAC43D4}"/>
     <hyperlink ref="D26" r:id="rId38" xr:uid="{7F6C78C1-85A8-4F03-A793-1C961208BEA6}"/>
     <hyperlink ref="D2" r:id="rId39" xr:uid="{DDBB2EE7-D674-4924-8E7D-6A88950572E3}"/>
     <hyperlink ref="D3" r:id="rId40" xr:uid="{CE438329-BFBE-4B1B-AF1C-31E7BD2D94AA}"/>
     <hyperlink ref="D4" r:id="rId41" xr:uid="{FA338553-EF85-4097-872D-5B82C6950237}"/>
     <hyperlink ref="D5" r:id="rId42" xr:uid="{454154A0-D1D3-4BCB-BAB1-BA51B5DA9BDD}"/>
-    <hyperlink ref="D6" r:id="rId43" display="https://assets-barracuda-zoovu.azureedge.net/zoovu/132b01cc-9c95-4892-912f-64e65c2a71d0" xr:uid="{E8439CED-E6D4-433E-B7F1-05D369BDFDDA}"/>
-    <hyperlink ref="D7" r:id="rId44" display="https://assets-barracuda-zoovu.azureedge.net/zoovu/21bd4264-0b81-4daa-af12-c49864d722a2" xr:uid="{6410D3B1-4C6C-4A39-9F1C-1B767B93EE54}"/>
+    <hyperlink ref="D6" r:id="rId43" xr:uid="{E8439CED-E6D4-433E-B7F1-05D369BDFDDA}"/>
+    <hyperlink ref="D7" r:id="rId44" xr:uid="{6410D3B1-4C6C-4A39-9F1C-1B767B93EE54}"/>
     <hyperlink ref="D8" r:id="rId45" xr:uid="{6C8BB65A-F9C7-4B31-89AA-F3AEE1933CF2}"/>
     <hyperlink ref="D9" r:id="rId46" xr:uid="{FDFF32F6-5719-4CFE-8CA4-4E36979A9AED}"/>
     <hyperlink ref="D10" r:id="rId47" xr:uid="{0E333D1E-B3A8-49BC-818C-CBE48015CCC7}"/>
     <hyperlink ref="D11" r:id="rId48" xr:uid="{608EF354-2CDF-40FD-A988-E071AEDEDC14}"/>
     <hyperlink ref="D12" r:id="rId49" xr:uid="{9C43FED5-B639-48D7-88AC-2BC34DA8597F}"/>
-    <hyperlink ref="D13" r:id="rId50" display="https://assets-barracuda-zoovu.azureedge.net/zoovu/42823f08-0426-43ea-bd7b-39bc9cd0a001" xr:uid="{8693301A-2E67-486D-BDA2-FF1596A17577}"/>
-    <hyperlink ref="D17" r:id="rId51" display="https://assets-barracuda-zoovu.azureedge.net/zoovu/410eb56b-b1b6-48e7-9d66-de64912d72dc" xr:uid="{D2BB8838-82DD-4D96-A5FF-3394DD40BF9F}"/>
-    <hyperlink ref="D14" r:id="rId52" display="https://assets-barracuda-zoovu.azureedge.net/zoovu/fac7f86a-c529-4e61-9606-8d1792f57276" xr:uid="{1F0F088B-58D4-4E94-9811-D52467DE7D34}"/>
-    <hyperlink ref="D15" r:id="rId53" display="https://assets-barracuda-zoovu.azureedge.net/zoovu/138255fa-5f8c-48ab-baa2-ff10b2a19b98" xr:uid="{D3218EA2-66B9-4A8D-A513-77C484867503}"/>
+    <hyperlink ref="D13" r:id="rId50" xr:uid="{8693301A-2E67-486D-BDA2-FF1596A17577}"/>
+    <hyperlink ref="D17" r:id="rId51" xr:uid="{D2BB8838-82DD-4D96-A5FF-3394DD40BF9F}"/>
+    <hyperlink ref="D14" r:id="rId52" xr:uid="{1F0F088B-58D4-4E94-9811-D52467DE7D34}"/>
+    <hyperlink ref="D15" r:id="rId53" xr:uid="{D3218EA2-66B9-4A8D-A513-77C484867503}"/>
     <hyperlink ref="D16" r:id="rId54" xr:uid="{88C7C7CA-F208-487A-805C-F2435F6F3660}"/>
     <hyperlink ref="D27" r:id="rId55" xr:uid="{D4B2729F-4EB7-4091-9B8F-2025E658A384}"/>
     <hyperlink ref="D28" r:id="rId56" xr:uid="{1BB171EA-C394-485E-971E-00C4EB8E6858}"/>

--- a/samplefile/ZoovuSampleData.xlsx
+++ b/samplefile/ZoovuSampleData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZoovuDemoShop\ahackman\samplefile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E964BA1F-6DBA-4430-ACF5-E75C8DF92C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED1BDCE-C33C-4637-A8D4-63F441CBDA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="180">
   <si>
     <t>Name</t>
   </si>
@@ -558,13 +558,28 @@
   </si>
   <si>
     <t>https://assets-barracuda-zoovu.azureedge.net/zoovu/8bf3c049-944c-4886-bd36-56ef54258628</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Stove</t>
+  </si>
+  <si>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>Dishwasher</t>
+  </si>
+  <si>
+    <t>Microwave</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -607,6 +622,11 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -635,7 +655,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -647,43 +667,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -897,10 +887,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -908,10 +898,10 @@
     <col min="1" max="1" width="23.44140625" customWidth="1"/>
     <col min="2" max="3" width="12.6640625" customWidth="1"/>
     <col min="4" max="4" width="80.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="12.6640625" style="4"/>
+    <col min="7" max="10" width="12.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -927,50 +917,53 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -986,50 +979,53 @@
       <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="M2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
         <v>4.5</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="P2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="R2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -1045,50 +1041,53 @@
       <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="M3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
         <v>4.5</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="P3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="R3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1104,50 +1103,53 @@
       <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="M4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
         <v>4.8</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="P4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="R4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1163,50 +1165,53 @@
       <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="1" t="b">
-        <v>0</v>
-      </c>
       <c r="M5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="P5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="R5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S5" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
@@ -1222,50 +1227,53 @@
       <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="M6" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
         <v>4.5</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="P6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="R6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T6" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -1281,50 +1289,53 @@
       <c r="E7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="M7" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
         <v>4.5</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="P7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="R7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
@@ -1340,50 +1351,53 @@
       <c r="E8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="M8" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
         <v>4.5</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="P8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="R8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S8" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -1399,47 +1413,50 @@
       <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="J9" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="M9" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
         <v>4.7</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="Q9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S9" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T9" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -1455,50 +1472,53 @@
       <c r="E10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="M10" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
         <v>4.7</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="Q10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T10" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -1514,50 +1534,53 @@
       <c r="E11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="J11" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L11" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="M11" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
         <v>4.5</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="Q11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T11" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -1573,47 +1596,50 @@
       <c r="E12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="J12" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="M12" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="Q12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S12" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T12" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>47</v>
       </c>
@@ -1629,50 +1655,53 @@
       <c r="E13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="J13" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="M13" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="Q13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S13" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T13" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>49</v>
       </c>
@@ -1688,50 +1717,53 @@
       <c r="E14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="J14" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="M14" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1">
         <v>4.2</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="P14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="Q14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S14" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T14" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>51</v>
       </c>
@@ -1747,47 +1779,50 @@
       <c r="E15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="J15" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="M15" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1">
         <v>4.2</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="P15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P15" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="Q15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S15" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T15" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>53</v>
       </c>
@@ -1803,50 +1838,53 @@
       <c r="E16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="J16" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="M16" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="P16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P16" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="Q16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="R16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S16" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T16" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>55</v>
       </c>
@@ -1862,50 +1900,53 @@
       <c r="E17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="I17" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="J17" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="M17" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="P17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P17" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="Q17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S17" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T17" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>57</v>
       </c>
@@ -1921,36 +1962,36 @@
       <c r="E18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="I18" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="J18" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="1" t="b">
-        <v>0</v>
-      </c>
       <c r="M18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O18" s="1">
         <v>4.7</v>
       </c>
-      <c r="O18" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="P18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1958,13 +1999,16 @@
         <v>20</v>
       </c>
       <c r="R18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="S18" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T18" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>60</v>
       </c>
@@ -1980,36 +2024,36 @@
       <c r="E19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="I19" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="J19" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L19" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="M19" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O19" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="O19" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="P19" s="1" t="s">
         <v>20</v>
       </c>
@@ -2017,13 +2061,16 @@
         <v>20</v>
       </c>
       <c r="R19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="S19" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T19" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>63</v>
       </c>
@@ -2039,44 +2086,47 @@
       <c r="E20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="J20" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="M20" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1">
         <v>4.3</v>
       </c>
-      <c r="O20" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="P20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="R20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="S20" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T20" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>65</v>
       </c>
@@ -2092,50 +2142,53 @@
       <c r="E21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="I21" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="J21" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L21" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="M21" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O21" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="O21" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="P21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="R21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S21" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="S21" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T21" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>68</v>
       </c>
@@ -2151,36 +2204,36 @@
       <c r="E22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="I22" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="J22" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L22" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="M22" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N22" s="1">
+      <c r="N22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O22" s="1">
         <v>4.8</v>
       </c>
-      <c r="O22" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="P22" s="1" t="s">
         <v>20</v>
       </c>
@@ -2188,13 +2241,16 @@
         <v>20</v>
       </c>
       <c r="R22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S22" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="S22" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T22" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>71</v>
       </c>
@@ -2210,44 +2266,47 @@
       <c r="E23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="J23" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="M23" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N23" s="1">
+      <c r="N23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O23" s="1">
         <v>4.3</v>
       </c>
-      <c r="O23" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="P23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R23" s="3" t="s">
+      <c r="R23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S23" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="S23" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T23" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>73</v>
       </c>
@@ -2263,50 +2322,53 @@
       <c r="E24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="H24" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="I24" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="J24" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L24" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="M24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N24" s="1">
+        <v>1</v>
+      </c>
+      <c r="N24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="O24" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="P24" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="R24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="S24" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T24" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
@@ -2322,50 +2384,53 @@
       <c r="E25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="I25" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="J25" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="L25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="M25" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N25" s="1">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="O25" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="P25" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R25" s="3" t="s">
+      <c r="R25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S25" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="S25" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T25" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>77</v>
       </c>
@@ -2381,30 +2446,30 @@
       <c r="E26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="J26" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="M26" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N26" s="1">
+        <v>1</v>
+      </c>
+      <c r="N26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="O26" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="P26" s="1" t="s">
         <v>20</v>
       </c>
@@ -2412,13 +2477,16 @@
         <v>20</v>
       </c>
       <c r="R26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S26" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="S26" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T26" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>80</v>
       </c>
@@ -2434,50 +2502,53 @@
       <c r="E27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="I27" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="J27" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="K27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="L27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L27" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="M27" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N27" s="1">
+        <v>1</v>
+      </c>
+      <c r="N27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
         <v>4.5</v>
       </c>
-      <c r="O27" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="P27" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R27" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="R27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S27" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T27" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>83</v>
       </c>
@@ -2493,50 +2564,53 @@
       <c r="E28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="H28" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="I28" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="J28" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L28" s="1" t="b">
-        <v>0</v>
-      </c>
       <c r="M28" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="N28" s="1">
+      <c r="N28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
         <v>3.9</v>
       </c>
-      <c r="O28" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="P28" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R28" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="R28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S28" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T28" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>86</v>
       </c>
@@ -2552,50 +2626,53 @@
       <c r="E29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="H29" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="I29" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="J29" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="K29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="L29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="M29" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N29" s="1">
+        <v>1</v>
+      </c>
+      <c r="N29" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
         <v>4.3</v>
       </c>
-      <c r="O29" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="P29" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R29" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="R29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S29" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T29" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>89</v>
       </c>
@@ -2611,46 +2688,49 @@
       <c r="E30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="H30" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="I30" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="J30" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="L30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L30" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="M30" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N30" s="1">
+        <v>1</v>
+      </c>
+      <c r="N30" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
         <v>4.2</v>
       </c>
-      <c r="O30" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="P30" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R30" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="R30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S30" s="1" t="b">
+      <c r="S30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T30" s="1" t="b">
         <v>1</v>
       </c>
     </row>

--- a/samplefile/ZoovuSampleData.xlsx
+++ b/samplefile/ZoovuSampleData.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZoovuDemoShop\ahackman\samplefile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED1BDCE-C33C-4637-A8D4-63F441CBDA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A567A601-7640-4E32-8BD2-683618C83DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-11604" yWindow="-21708" windowWidth="51816" windowHeight="21216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$30</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="182">
   <si>
     <t>Name</t>
   </si>
@@ -573,6 +576,12 @@
   </si>
   <si>
     <t>Microwave</t>
+  </si>
+  <si>
+    <t>https://assets-barracuda-zoovu.azureedge.net/zoovu/8b1d655d-d370-45ae-a91d-2fc5f3a2d87c</t>
+  </si>
+  <si>
+    <t>https://assets-barracuda-zoovu.azureedge.net/zoovu/41605731-1b4b-4aa8-b811-6bc5b5f91fdd</t>
   </si>
 </sst>
 </file>
@@ -890,7 +899,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1397,7 +1406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -1408,7 +1417,7 @@
         <v>1299</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>17</v>
@@ -1456,7 +1465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -1467,7 +1476,7 @@
         <v>1499</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>17</v>
@@ -1822,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>53</v>
       </c>
@@ -1833,7 +1842,7 @@
         <v>1499</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>17</v>

--- a/samplefile/ZoovuSampleData.xlsx
+++ b/samplefile/ZoovuSampleData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ZoovuDemoShop\ahackman\samplefile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A567A601-7640-4E32-8BD2-683618C83DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BC73F5-AA60-4BD3-A2DC-84747D83C99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11604" yWindow="-21708" windowWidth="51816" windowHeight="21216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9360" yWindow="-17796" windowWidth="18372" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="210">
   <si>
     <t>Name</t>
   </si>
@@ -89,9 +89,6 @@
     <t>sku1001</t>
   </si>
   <si>
-    <t>Google</t>
-  </si>
-  <si>
     <t>Silver</t>
   </si>
   <si>
@@ -582,13 +579,100 @@
   </si>
   <si>
     <t>https://assets-barracuda-zoovu.azureedge.net/zoovu/41605731-1b4b-4aa8-b811-6bc5b5f91fdd</t>
+  </si>
+  <si>
+    <t>https://demos-shop.azurewebsites.net/products/sku1001.php?id=sku1001</t>
+  </si>
+  <si>
+    <t>https://demos-shop.azurewebsites.net/products/sku1002.php?id=sku1002</t>
+  </si>
+  <si>
+    <t>https://demos-shop.azurewebsites.net/products/sku1003.php?id=sku1003</t>
+  </si>
+  <si>
+    <t>https://demos-shop.azurewebsites.net/products/sku1004.php?id=sku1004</t>
+  </si>
+  <si>
+    <t>https://demos-shop.azurewebsites.net/products/sku1005.php?id=sku1005</t>
+  </si>
+  <si>
+    <t>https://demos-shop.azurewebsites.net/products/sku1006.php?id=sku1006</t>
+  </si>
+  <si>
+    <t>https://demos-shop.azurewebsites.net/products/sku1007.php?id=sku1007</t>
+  </si>
+  <si>
+    <t>https://demos-shop.azurewebsites.net/products/sku1008.php?id=sku1008</t>
+  </si>
+  <si>
+    <t>https://demos-shop.azurewebsites.net/products/sku1009.php?id=sku1009</t>
+  </si>
+  <si>
+    <t>https://demos-shop.azurewebsites.net/products/sku1010.php?id=sku1010</t>
+  </si>
+  <si>
+    <t>https://demos-shop.azurewebsites.net/products/sku1011.php?id=sku1011</t>
+  </si>
+  <si>
+    <t>https://demos-shop.azurewebsites.net/products/sku1012.php?id=sku1012</t>
+  </si>
+  <si>
+    <t>https://demos-shop.azurewebsites.net/products/sku1013.php?id=sku1013</t>
+  </si>
+  <si>
+    <t>https://demos-shop.azurewebsites.net/products/sku1014.php?id=sku1014</t>
+  </si>
+  <si>
+    <t>https://demos-shop.azurewebsites.net/products/sku1015.php?id=sku1015</t>
+  </si>
+  <si>
+    <t>https://demos-shop.azurewebsites.net/products/sku1016.php?id=sku1016</t>
+  </si>
+  <si>
+    <t>https://demos-shop.azurewebsites.net/products/sku1017.php?id=sku1017</t>
+  </si>
+  <si>
+    <t>https://demos-shop.azurewebsites.net/products/sku1018.php?id=sku1018</t>
+  </si>
+  <si>
+    <t>https://demos-shop.azurewebsites.net/products/sku1019.php?id=sku1019</t>
+  </si>
+  <si>
+    <t>https://demos-shop.azurewebsites.net/products/sku1020.php?id=sku1020</t>
+  </si>
+  <si>
+    <t>https://demos-shop.azurewebsites.net/products/sku1021.php?id=sku1021</t>
+  </si>
+  <si>
+    <t>https://demos-shop.azurewebsites.net/products/sku1022.php?id=sku1022</t>
+  </si>
+  <si>
+    <t>https://demos-shop.azurewebsites.net/products/sku1023.php?id=sku1023</t>
+  </si>
+  <si>
+    <t>https://demos-shop.azurewebsites.net/products/sku1024.php?id=sku1024</t>
+  </si>
+  <si>
+    <t>https://demos-shop.azurewebsites.net/products/sku1025.php?id=sku1025</t>
+  </si>
+  <si>
+    <t>https://demos-shop.azurewebsites.net/products/sku1026.php?id=sku1026</t>
+  </si>
+  <si>
+    <t>https://demos-shop.azurewebsites.net/products/sku1027.php?id=sku1027</t>
+  </si>
+  <si>
+    <t>https://demos-shop.azurewebsites.net/products/sku1028.php?id=sku1028</t>
+  </si>
+  <si>
+    <t>https://demos-shop.azurewebsites.net/products/sku1029.php?id=sku1029</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -600,12 +684,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="10"/>
@@ -651,7 +729,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -659,24 +737,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -898,8 +987,8 @@
   </sheetPr>
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -907,10 +996,10 @@
     <col min="1" max="1" width="23.44140625" customWidth="1"/>
     <col min="2" max="3" width="12.6640625" customWidth="1"/>
     <col min="4" max="4" width="80.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="12.6640625" style="4"/>
+    <col min="7" max="10" width="12.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -927,19 +1016,19 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G1" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>97</v>
+      <c r="J1" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -972,7 +1061,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -982,32 +1071,32 @@
       <c r="C2" s="1">
         <v>549</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="M2" s="1" t="b">
         <v>1</v>
@@ -1019,57 +1108,57 @@
         <v>4.5</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T2" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="C3" s="1">
         <v>699</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="D3" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>126</v>
+      <c r="I3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M3" s="1" t="b">
         <v>1</v>
@@ -1081,57 +1170,57 @@
         <v>4.5</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T3" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="C4" s="1">
         <v>1199</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="D4" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>127</v>
+      <c r="J4" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M4" s="1" t="b">
         <v>1</v>
@@ -1143,57 +1232,57 @@
         <v>4.8</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T4" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C5" s="1">
         <v>1299</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H5" s="4" t="s">
+      <c r="D5" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>136</v>
+      <c r="I5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M5" s="1" t="b">
         <v>0</v>
@@ -1205,57 +1294,57 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T5" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C6" s="1">
         <v>499</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="L6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M6" s="1" t="b">
         <v>1</v>
@@ -1267,57 +1356,57 @@
         <v>4.5</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T6" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T6" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="C7" s="1">
         <v>549</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="D7" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>23</v>
+      <c r="J7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M7" s="1" t="b">
         <v>1</v>
@@ -1329,57 +1418,57 @@
         <v>4.5</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T7" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="C8" s="1">
         <v>799</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="D8" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>23</v>
+      <c r="I8" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M8" s="1" t="b">
         <v>1</v>
@@ -1391,16 +1480,16 @@
         <v>4.5</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T8" s="1" t="b">
         <v>1</v>
@@ -1408,37 +1497,37 @@
     </row>
     <row r="9" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C9" s="1">
         <v>1299</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="D9" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>128</v>
+      <c r="H9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M9" s="1" t="b">
         <v>1</v>
@@ -1450,16 +1539,16 @@
         <v>4.7</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T9" s="1" t="b">
         <v>0</v>
@@ -1467,40 +1556,40 @@
     </row>
     <row r="10" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C10" s="1">
         <v>1499</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="D10" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>99</v>
+      <c r="J10" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M10" s="1" t="b">
         <v>1</v>
@@ -1512,57 +1601,57 @@
         <v>4.7</v>
       </c>
       <c r="P10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T10" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T10" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C11" s="1">
         <v>1299</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="D11" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>23</v>
+      <c r="J11" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M11" s="1" t="b">
         <v>1</v>
@@ -1574,54 +1663,54 @@
         <v>4.5</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T11" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="C12" s="1">
         <v>1599</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="D12" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="M12" s="1" t="b">
         <v>1</v>
@@ -1633,57 +1722,57 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T12" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C13" s="1">
         <v>1599</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="D13" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="M13" s="1" t="b">
         <v>1</v>
@@ -1695,57 +1784,57 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T13" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="C14" s="1">
         <v>1199</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G14" s="4" t="s">
+      <c r="D14" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>102</v>
+      <c r="J14" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M14" s="1" t="b">
         <v>1</v>
@@ -1757,54 +1846,54 @@
         <v>4.2</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T14" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C15" s="1">
         <v>1599</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>23</v>
+      <c r="D15" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M15" s="1" t="b">
         <v>1</v>
@@ -1816,16 +1905,16 @@
         <v>4.2</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T15" s="1" t="b">
         <v>0</v>
@@ -1833,40 +1922,40 @@
     </row>
     <row r="16" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="C16" s="1">
         <v>1499</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G16" s="4" t="s">
+      <c r="D16" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>98</v>
+      <c r="J16" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M16" s="1" t="b">
         <v>1</v>
@@ -1878,57 +1967,57 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T16" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C17" s="1">
         <v>1199</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="D17" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="M17" s="1" t="b">
         <v>1</v>
@@ -1940,57 +2029,57 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T17" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C18" s="1">
         <v>449</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="D18" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="M18" s="1" t="b">
         <v>0</v>
@@ -2002,57 +2091,57 @@
         <v>4.7</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T18" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="T18" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="C19" s="1">
         <v>499</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H19" s="4" t="s">
+      <c r="D19" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="H19" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>23</v>
+      <c r="I19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M19" s="1" t="b">
         <v>1</v>
@@ -2064,51 +2153,51 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T19" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="T19" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="C20" s="1">
         <v>499</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="D20" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="M20" s="1" t="b">
         <v>1</v>
@@ -2120,57 +2209,57 @@
         <v>4.3</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>59</v>
+        <v>19</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="T20" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="C21" s="1">
         <v>699</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="D21" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="M21" s="1" t="b">
         <v>1</v>
@@ -2182,57 +2271,57 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="T21" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="T21" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="C22" s="1">
         <v>599</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H22" s="4" t="s">
+      <c r="D22" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="H22" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="J22" s="4" t="s">
-        <v>133</v>
+      <c r="I22" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M22" s="1" t="b">
         <v>1</v>
@@ -2244,51 +2333,51 @@
         <v>4.8</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="T22" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="T22" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="C23" s="1">
         <v>699</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>117</v>
+      <c r="D23" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M23" s="1" t="b">
         <v>1</v>
@@ -2300,57 +2389,57 @@
         <v>4.3</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>67</v>
+        <v>19</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="T23" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="C24" s="1">
         <v>449</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="D24" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="K24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="M24" s="1" t="b">
         <v>1</v>
@@ -2362,57 +2451,57 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>59</v>
+        <v>19</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="T24" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="C25" s="1">
         <v>499</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H25" s="4" t="s">
+      <c r="D25" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="H25" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="J25" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>23</v>
+      <c r="I25" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M25" s="1" t="b">
         <v>1</v>
@@ -2424,51 +2513,51 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>59</v>
+        <v>19</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="T25" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="C26" s="1">
         <v>499</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>23</v>
+      <c r="D26" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M26" s="1" t="b">
         <v>1</v>
@@ -2480,57 +2569,57 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="T26" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="T26" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="C27" s="1">
         <v>199</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G27" s="4" t="s">
+      <c r="D27" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="I27" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="I27" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>155</v>
+      <c r="J27" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M27" s="1" t="b">
         <v>1</v>
@@ -2542,57 +2631,57 @@
         <v>4.5</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T27" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="S27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T27" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="C28" s="1">
         <v>249</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G28" s="4" t="s">
+      <c r="D28" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="H28" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>155</v>
+      <c r="J28" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M28" s="1" t="b">
         <v>0</v>
@@ -2604,57 +2693,57 @@
         <v>3.9</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T28" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="S28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T28" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="C29" s="1">
         <v>399</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="D29" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="K29" s="1" t="s">
+      <c r="L29" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="M29" s="1" t="b">
         <v>1</v>
@@ -2666,57 +2755,57 @@
         <v>4.3</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T29" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="S29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T29" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="C30" s="1">
         <v>349</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G30" s="4" t="s">
+      <c r="D30" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>23</v>
+      <c r="J30" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M30" s="1" t="b">
         <v>1</v>
@@ -2728,84 +2817,55 @@
         <v>4.2</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T30" s="1" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E30" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="E29" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="E28" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="E27" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="E26" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="E25" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="E24" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="E23" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="E22" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="E21" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="E20" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="E19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="E18" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="E17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="E16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="E15" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="E14" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="E13" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="E12" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="E11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="E10" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E9" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="E8" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="E7" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E6" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E5" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E4" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E3" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E2" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D18" r:id="rId30" xr:uid="{C8BED3F2-81F6-4AA6-84ED-18996181C7FD}"/>
-    <hyperlink ref="D19" r:id="rId31" xr:uid="{02C0E693-DC11-494B-B410-95217982373B}"/>
-    <hyperlink ref="D20" r:id="rId32" xr:uid="{A7D728B5-1825-4297-B1AC-7D7FE5890C3E}"/>
-    <hyperlink ref="D21" r:id="rId33" xr:uid="{5634882B-FCEA-44F8-B1DA-3C9E6E74F6E3}"/>
-    <hyperlink ref="D22" r:id="rId34" xr:uid="{66BCD681-8C02-497B-941E-3ECAE731AEF1}"/>
-    <hyperlink ref="D23" r:id="rId35" xr:uid="{BE1BACC6-04E6-410D-9DCA-373BADED460A}"/>
-    <hyperlink ref="D24" r:id="rId36" xr:uid="{BF0C6E54-8295-4642-862C-2F5B83BA8FBC}"/>
-    <hyperlink ref="D25" r:id="rId37" xr:uid="{9069A94D-8425-4672-B8C0-57B34AAC43D4}"/>
-    <hyperlink ref="D26" r:id="rId38" xr:uid="{7F6C78C1-85A8-4F03-A793-1C961208BEA6}"/>
-    <hyperlink ref="D2" r:id="rId39" xr:uid="{DDBB2EE7-D674-4924-8E7D-6A88950572E3}"/>
-    <hyperlink ref="D3" r:id="rId40" xr:uid="{CE438329-BFBE-4B1B-AF1C-31E7BD2D94AA}"/>
-    <hyperlink ref="D4" r:id="rId41" xr:uid="{FA338553-EF85-4097-872D-5B82C6950237}"/>
-    <hyperlink ref="D5" r:id="rId42" xr:uid="{454154A0-D1D3-4BCB-BAB1-BA51B5DA9BDD}"/>
-    <hyperlink ref="D6" r:id="rId43" xr:uid="{E8439CED-E6D4-433E-B7F1-05D369BDFDDA}"/>
-    <hyperlink ref="D7" r:id="rId44" xr:uid="{6410D3B1-4C6C-4A39-9F1C-1B767B93EE54}"/>
-    <hyperlink ref="D8" r:id="rId45" xr:uid="{6C8BB65A-F9C7-4B31-89AA-F3AEE1933CF2}"/>
-    <hyperlink ref="D9" r:id="rId46" xr:uid="{FDFF32F6-5719-4CFE-8CA4-4E36979A9AED}"/>
-    <hyperlink ref="D10" r:id="rId47" xr:uid="{0E333D1E-B3A8-49BC-818C-CBE48015CCC7}"/>
-    <hyperlink ref="D11" r:id="rId48" xr:uid="{608EF354-2CDF-40FD-A988-E071AEDEDC14}"/>
-    <hyperlink ref="D12" r:id="rId49" xr:uid="{9C43FED5-B639-48D7-88AC-2BC34DA8597F}"/>
-    <hyperlink ref="D13" r:id="rId50" xr:uid="{8693301A-2E67-486D-BDA2-FF1596A17577}"/>
-    <hyperlink ref="D17" r:id="rId51" xr:uid="{D2BB8838-82DD-4D96-A5FF-3394DD40BF9F}"/>
-    <hyperlink ref="D14" r:id="rId52" xr:uid="{1F0F088B-58D4-4E94-9811-D52467DE7D34}"/>
-    <hyperlink ref="D15" r:id="rId53" xr:uid="{D3218EA2-66B9-4A8D-A513-77C484867503}"/>
-    <hyperlink ref="D16" r:id="rId54" xr:uid="{88C7C7CA-F208-487A-805C-F2435F6F3660}"/>
-    <hyperlink ref="D27" r:id="rId55" xr:uid="{D4B2729F-4EB7-4091-9B8F-2025E658A384}"/>
-    <hyperlink ref="D28" r:id="rId56" xr:uid="{1BB171EA-C394-485E-971E-00C4EB8E6858}"/>
-    <hyperlink ref="D29" r:id="rId57" xr:uid="{05DD7B07-C1D4-420A-B2AB-1119DCA8631C}"/>
-    <hyperlink ref="D30" r:id="rId58" xr:uid="{C6FD4B61-7B46-4581-8EF8-41E352131583}"/>
+    <hyperlink ref="D18" r:id="rId1" xr:uid="{C8BED3F2-81F6-4AA6-84ED-18996181C7FD}"/>
+    <hyperlink ref="D19" r:id="rId2" xr:uid="{02C0E693-DC11-494B-B410-95217982373B}"/>
+    <hyperlink ref="D20" r:id="rId3" xr:uid="{A7D728B5-1825-4297-B1AC-7D7FE5890C3E}"/>
+    <hyperlink ref="D21" r:id="rId4" xr:uid="{5634882B-FCEA-44F8-B1DA-3C9E6E74F6E3}"/>
+    <hyperlink ref="D22" r:id="rId5" xr:uid="{66BCD681-8C02-497B-941E-3ECAE731AEF1}"/>
+    <hyperlink ref="D23" r:id="rId6" xr:uid="{BE1BACC6-04E6-410D-9DCA-373BADED460A}"/>
+    <hyperlink ref="D24" r:id="rId7" xr:uid="{BF0C6E54-8295-4642-862C-2F5B83BA8FBC}"/>
+    <hyperlink ref="D25" r:id="rId8" xr:uid="{9069A94D-8425-4672-B8C0-57B34AAC43D4}"/>
+    <hyperlink ref="D26" r:id="rId9" xr:uid="{7F6C78C1-85A8-4F03-A793-1C961208BEA6}"/>
+    <hyperlink ref="D2" r:id="rId10" xr:uid="{DDBB2EE7-D674-4924-8E7D-6A88950572E3}"/>
+    <hyperlink ref="D3" r:id="rId11" xr:uid="{CE438329-BFBE-4B1B-AF1C-31E7BD2D94AA}"/>
+    <hyperlink ref="D4" r:id="rId12" xr:uid="{FA338553-EF85-4097-872D-5B82C6950237}"/>
+    <hyperlink ref="D5" r:id="rId13" xr:uid="{454154A0-D1D3-4BCB-BAB1-BA51B5DA9BDD}"/>
+    <hyperlink ref="D6" r:id="rId14" xr:uid="{E8439CED-E6D4-433E-B7F1-05D369BDFDDA}"/>
+    <hyperlink ref="D7" r:id="rId15" xr:uid="{6410D3B1-4C6C-4A39-9F1C-1B767B93EE54}"/>
+    <hyperlink ref="D8" r:id="rId16" xr:uid="{6C8BB65A-F9C7-4B31-89AA-F3AEE1933CF2}"/>
+    <hyperlink ref="D9" r:id="rId17" xr:uid="{FDFF32F6-5719-4CFE-8CA4-4E36979A9AED}"/>
+    <hyperlink ref="D10" r:id="rId18" xr:uid="{0E333D1E-B3A8-49BC-818C-CBE48015CCC7}"/>
+    <hyperlink ref="D11" r:id="rId19" xr:uid="{608EF354-2CDF-40FD-A988-E071AEDEDC14}"/>
+    <hyperlink ref="D12" r:id="rId20" xr:uid="{9C43FED5-B639-48D7-88AC-2BC34DA8597F}"/>
+    <hyperlink ref="D13" r:id="rId21" xr:uid="{8693301A-2E67-486D-BDA2-FF1596A17577}"/>
+    <hyperlink ref="D17" r:id="rId22" xr:uid="{D2BB8838-82DD-4D96-A5FF-3394DD40BF9F}"/>
+    <hyperlink ref="D14" r:id="rId23" xr:uid="{1F0F088B-58D4-4E94-9811-D52467DE7D34}"/>
+    <hyperlink ref="D15" r:id="rId24" xr:uid="{D3218EA2-66B9-4A8D-A513-77C484867503}"/>
+    <hyperlink ref="D16" r:id="rId25" xr:uid="{88C7C7CA-F208-487A-805C-F2435F6F3660}"/>
+    <hyperlink ref="D27" r:id="rId26" xr:uid="{D4B2729F-4EB7-4091-9B8F-2025E658A384}"/>
+    <hyperlink ref="D28" r:id="rId27" xr:uid="{1BB171EA-C394-485E-971E-00C4EB8E6858}"/>
+    <hyperlink ref="D29" r:id="rId28" xr:uid="{05DD7B07-C1D4-420A-B2AB-1119DCA8631C}"/>
+    <hyperlink ref="D30" r:id="rId29" xr:uid="{C6FD4B61-7B46-4581-8EF8-41E352131583}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId59"/>
+  <pageSetup orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>